--- a/JsonConverter/table/GameTable.xlsx
+++ b/JsonConverter/table/GameTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\SkillSystem\JsonConverter\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F932D952-62DA-46A3-BE83-F73B6F493260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911A8143-D33F-4981-BA57-D2C728D8308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="810" windowWidth="18360" windowHeight="13125" xr2:uid="{2F81B8B1-3433-4AB5-9B05-3FE1E6BE6218}"/>
+    <workbookView xWindow="30750" yWindow="810" windowWidth="18360" windowHeight="13125" activeTab="1" xr2:uid="{2F81B8B1-3433-4AB5-9B05-3FE1E6BE6218}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>skillNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고블린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unitNameKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,26 @@
   </si>
   <si>
     <t>unit_name_200001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_10103_name_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_10103_explain_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +222,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -279,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +321,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E5C370-B3C0-4C3E-B2F3-7D3D1A597F1D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -658,7 +685,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -675,7 +702,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -683,7 +710,7 @@
         <v>200001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -692,7 +719,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -703,60 +730,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037B7773-DEDF-4913-9665-51C98D8D2FF6}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
-    <col min="4" max="4" width="28.625" customWidth="1"/>
+    <col min="2" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>10101</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10102</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -768,10 +817,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8242D5-B8C2-4CC2-AF2F-0AE4674B8A5A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -811,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>25</v>
@@ -819,13 +868,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>10101</v>
+        <v>10102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
@@ -839,10 +888,10 @@
         <v>10102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
@@ -853,18 +902,35 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>10102</v>
+        <v>10103</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>10103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/JsonConverter/table/GameTable.xlsx
+++ b/JsonConverter/table/GameTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\SkillSystem\JsonConverter\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911A8143-D33F-4981-BA57-D2C728D8308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96478A-C8E6-4A72-86BC-8F5380600600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="810" windowWidth="18360" windowHeight="13125" activeTab="1" xr2:uid="{2F81B8B1-3433-4AB5-9B05-3FE1E6BE6218}"/>
+    <workbookView xWindow="30750" yWindow="810" windowWidth="18360" windowHeight="13125" activeTab="2" xr2:uid="{2F81B8B1-3433-4AB5-9B05-3FE1E6BE6218}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>skillNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,18 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EffectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ValueType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +181,30 @@
   </si>
   <si>
     <t>attackRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피의대가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_10104_name_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_10104_explain_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,10 +327,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,7 +667,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,19 +678,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -693,16 +698,16 @@
         <v>100001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3">
         <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -710,16 +715,16 @@
         <v>200001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3">
         <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -730,10 +735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037B7773-DEDF-4913-9665-51C98D8D2FF6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -752,30 +757,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>10101</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -783,14 +788,16 @@
         <v>10102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -798,13 +805,32 @@
         <v>10103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
       <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>10104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -819,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8242D5-B8C2-4CC2-AF2F-0AE4674B8A5A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -837,16 +863,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -854,16 +880,16 @@
         <v>10101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -871,16 +897,16 @@
         <v>10102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -888,16 +914,16 @@
         <v>10102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -905,16 +931,16 @@
         <v>10103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -922,16 +948,16 @@
         <v>10103</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -942,10 +968,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500E7671-7A1B-4516-B516-5722D2B16523}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -956,49 +982,59 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -1008,6 +1044,9 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/JsonConverter/table/GameTable.xlsx
+++ b/JsonConverter/table/GameTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\SkillSystem\JsonConverter\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Morph\SkillSystem\JsonConverter\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96478A-C8E6-4A72-86BC-8F5380600600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A08760-A313-4AC3-813B-E648F1C0DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="810" windowWidth="18360" windowHeight="13125" activeTab="2" xr2:uid="{2F81B8B1-3433-4AB5-9B05-3FE1E6BE6218}"/>
+    <workbookView xWindow="6975" yWindow="2235" windowWidth="19650" windowHeight="11355" activeTab="1" xr2:uid="{2F81B8B1-3433-4AB5-9B05-3FE1E6BE6218}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>skillNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -735,21 +735,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037B7773-DEDF-4913-9665-51C98D8D2FF6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H16:H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="2" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,80 +757,95 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>10101</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10102</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10103</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10104</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -845,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8242D5-B8C2-4CC2-AF2F-0AE4674B8A5A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/JsonConverter/table/GameTable.xlsx
+++ b/JsonConverter/table/GameTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Morph\SkillSystem\JsonConverter\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\SkillSystem\JsonConverter\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A08760-A313-4AC3-813B-E648F1C0DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6D549D-239D-41E7-90EE-F1EB728CFD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="2235" windowWidth="19650" windowHeight="11355" activeTab="1" xr2:uid="{2F81B8B1-3433-4AB5-9B05-3FE1E6BE6218}"/>
+    <workbookView xWindow="30750" yWindow="810" windowWidth="18360" windowHeight="13125" activeTab="1" xr2:uid="{2F81B8B1-3433-4AB5-9B05-3FE1E6BE6218}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>skillNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RecoveryHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Caster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,18 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피의대가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_10104_name_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_10104_explain_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,7 +188,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>valueType</t>
+    <t>RecoveryHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,19 +662,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -698,16 +682,16 @@
         <v>100001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3">
         <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -715,7 +699,7 @@
         <v>200001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -724,7 +708,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -738,7 +722,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -757,16 +741,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -774,7 +758,7 @@
         <v>10101</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -783,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -794,7 +778,7 @@
         <v>10102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
@@ -803,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -814,40 +798,28 @@
         <v>10103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>10104</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -858,10 +830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8242D5-B8C2-4CC2-AF2F-0AE4674B8A5A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -870,27 +842,23 @@
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>10101</v>
       </c>
@@ -903,11 +871,8 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>10102</v>
       </c>
@@ -920,28 +885,22 @@
       <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>10102</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10103</v>
       </c>
@@ -954,11 +913,8 @@
       <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>10103</v>
       </c>
@@ -966,13 +922,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -997,58 +950,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
